--- a/tests/fixtures/orderforms/pacbio_revio_sequencing_1.xlsx
+++ b/tests/fixtures/orderforms/pacbio_revio_sequencing_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Documents/clinicalGenomics/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A0E6F-6E0C-F144-B897-193DFB4C882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E132B1-57A2-054B-B7BF-86B03F24B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="413">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -1730,10 +1730,7 @@
     <t>BAM</t>
   </si>
   <si>
-    <t>pacbio_test_sample</t>
-  </si>
-  <si>
-    <t>tube</t>
+    <t>PacbioTestSample</t>
   </si>
 </sst>
 </file>
@@ -3158,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3370,8 +3367,8 @@
   </sheetPr>
   <dimension ref="A1:ALT395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -10707,7 +10704,7 @@
         <v>1234</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="M15" s="43"/>
       <c r="N15" s="57"/>

--- a/tests/fixtures/orderforms/pacbio_revio_sequencing_1.xlsx
+++ b/tests/fixtures/orderforms/pacbio_revio_sequencing_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E132B1-57A2-054B-B7BF-86B03F24B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382AAF6-EFF4-2E42-866C-B505A8B23160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33680" yWindow="-13480" windowWidth="46320" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="424">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -1730,7 +1730,40 @@
     <t>BAM</t>
   </si>
   <si>
-    <t>PacbioTestSample</t>
+    <t>pacbiosample1</t>
+  </si>
+  <si>
+    <t>pacbiosample2</t>
+  </si>
+  <si>
+    <t>pacbiosample3</t>
+  </si>
+  <si>
+    <t>pacbiosample4</t>
+  </si>
+  <si>
+    <t>pacbiosample5</t>
+  </si>
+  <si>
+    <t>pcbiosubj1</t>
+  </si>
+  <si>
+    <t>pcbiosubj2</t>
+  </si>
+  <si>
+    <t>pcbiosubj3</t>
+  </si>
+  <si>
+    <t>pcbiosubj4</t>
+  </si>
+  <si>
+    <t>pcbiosubj5</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -3155,7 +3188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3367,8 +3400,8 @@
   </sheetPr>
   <dimension ref="A1:ALT395"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -10686,7 +10719,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" s="64" t="s">
         <v>49</v>
@@ -10700,17 +10733,23 @@
       <c r="J15" s="85">
         <v>20</v>
       </c>
-      <c r="K15" s="85">
-        <v>1234</v>
+      <c r="K15" s="85" t="s">
+        <v>417</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M15" s="43"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="67"/>
+      <c r="N15" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>44</v>
+      </c>
       <c r="P15" s="40"/>
-      <c r="Q15" s="57"/>
+      <c r="Q15" s="57" t="s">
+        <v>423</v>
+      </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
@@ -11703,18 +11742,42 @@
       <c r="ALS15"/>
     </row>
     <row r="16" spans="1:1007" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="66"/>
+      <c r="A16" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="85">
+        <v>300</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>418</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>45</v>
+      </c>
       <c r="M16" s="43"/>
       <c r="N16" s="57"/>
       <c r="O16" s="67"/>
@@ -12712,18 +12775,42 @@
       <c r="ALS16"/>
     </row>
     <row r="17" spans="1:1007" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="66"/>
+      <c r="A17" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="85">
+        <v>10</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>419</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>45</v>
+      </c>
       <c r="M17" s="43"/>
       <c r="N17" s="57"/>
       <c r="O17" s="67"/>
@@ -13721,18 +13808,42 @@
       <c r="ALS17"/>
     </row>
     <row r="18" spans="1:1007" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="66"/>
+      <c r="A18" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="85">
+        <v>60</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>45</v>
+      </c>
       <c r="M18" s="43"/>
       <c r="N18" s="57"/>
       <c r="O18" s="67"/>
@@ -14730,18 +14841,42 @@
       <c r="ALS18"/>
     </row>
     <row r="19" spans="1:1007" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="66"/>
+      <c r="A19" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="85">
+        <v>55</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>45</v>
+      </c>
       <c r="M19" s="43"/>
       <c r="N19" s="57"/>
       <c r="O19" s="67"/>
@@ -15740,7 +15875,9 @@
     </row>
     <row r="20" spans="1:1007" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="53" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="55"/>
@@ -60499,6 +60636,7 @@
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="N9:O9"/>
   </mergeCells>
+  <phoneticPr fontId="37" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15:M394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
